--- a/ImportExportFiles/ImportExportFiles/Files/template.xlsx
+++ b/ImportExportFiles/ImportExportFiles/Files/template.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYENTHAO\Desktop\ExportExcelToTemplateEpplus\ExportExcelToTemplateEpplus\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Window\7.Company\4. MyGitHub\ImportExportFiles\ImportExportFiles\ImportExportFiles\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F9468-FE2C-4189-B106-7F0894AD2B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="productdetails">Sheet1!$B$8:$D$8</definedName>
+    <definedName name="productdetails">Template!$B$8:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="0"/>
+  <calcPr calcId="162913" iterateDelta="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HÓA ĐƠN BÁN HÀNG</t>
   </si>
@@ -43,6 +40,51 @@
   </si>
   <si>
     <t>TỔNG CỘNG</t>
+  </si>
+  <si>
+    <t>KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>NGƯỜI BÁN HÀNG</t>
+  </si>
+  <si>
+    <t>{info.tencuahang}</t>
+  </si>
+  <si>
+    <t>{info.diachi}</t>
+  </si>
+  <si>
+    <t>{info.tenkhachhang}</t>
+  </si>
+  <si>
+    <t>{info.diachikhachhang}</t>
+  </si>
+  <si>
+    <t>Thảo Meo</t>
+  </si>
+  <si>
+    <t>Lập trình VB</t>
+  </si>
+  <si>
+    <t>{tenhang}</t>
+  </si>
+  <si>
+    <t>{soluong}</t>
+  </si>
+  <si>
+    <t>{dongia}</t>
+  </si>
+  <si>
+    <t>(Hóa đơn bán lẻ)</t>
+  </si>
+  <si>
+    <t>{info.dienthoai}</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>{info.ngaythang}</t>
   </si>
   <si>
     <r>
@@ -53,60 +95,15 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> ............................................................................................................................
-....................................................................................................................................................................</t>
+      <t xml:space="preserve"> .......................................................................................................................................
+................................................................................................................................................................................</t>
     </r>
-  </si>
-  <si>
-    <t>KHÁCH HÀNG</t>
-  </si>
-  <si>
-    <t>NGƯỜI BÁN HÀNG</t>
-  </si>
-  <si>
-    <t>{info.tencuahang}</t>
-  </si>
-  <si>
-    <t>{info.diachi}</t>
-  </si>
-  <si>
-    <t>{info.tenkhachhang}</t>
-  </si>
-  <si>
-    <t>{info.diachikhachhang}</t>
-  </si>
-  <si>
-    <t>Thảo Meo</t>
-  </si>
-  <si>
-    <t>Lập trình VB</t>
-  </si>
-  <si>
-    <t>{tenhang}</t>
-  </si>
-  <si>
-    <t>{soluong}</t>
-  </si>
-  <si>
-    <t>{dongia}</t>
-  </si>
-  <si>
-    <t>(Hóa đơn bán lẻ)</t>
-  </si>
-  <si>
-    <t>{info.dienthoai}</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>{info.ngaythang}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -369,15 +366,24 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,15 +404,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -795,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20" t="s">
@@ -805,43 +802,43 @@
       <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>1</v>
@@ -861,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="4" t="e">
         <f>C8*D8</f>
@@ -1043,10 +1040,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="12">
         <f>SUM(C8:C22)</f>
         <v>0</v>
@@ -1058,40 +1055,40 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
-      <c r="C27" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -1118,32 +1115,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/ImportExportFiles/ImportExportFiles/Files/template.xlsx
+++ b/ImportExportFiles/ImportExportFiles/Files/template.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="productdetails">Template!$B$8:$D$8</definedName>
+    <definedName name="productdetails">Template!$A$8:$D$8</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>HÓA ĐƠN BÁN HÀNG</t>
   </si>
@@ -98,6 +98,9 @@
       <t xml:space="preserve"> .......................................................................................................................................
 ................................................................................................................................................................................</t>
     </r>
+  </si>
+  <si>
+    <t>{stt}</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -244,21 +247,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -302,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,25 +315,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,10 +363,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,79 +770,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="4" t="e">
@@ -872,231 +851,83 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E22" si="0">C9*D9</f>
+        <f t="shared" ref="E9" si="0">C9*D9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
+      <c r="A10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="9">
+        <f>SUM(C8:C9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="D10" s="3"/>
+      <c r="E10" s="9" t="e">
+        <f>SUM(E8:E9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="C14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="12">
-        <f>SUM(C8:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="12" t="e">
-        <f>SUM(E8:E22)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="C27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -1104,11 +935,11 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
